--- a/physics/physics.xlsx
+++ b/physics/physics.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kolen/GitHub/MathJax-third-party-extensions/physics/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37540" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LaTeX" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="335">
   <si>
     <t>|</t>
   </si>
@@ -186,9 +194,6 @@
     <t>\Re{</t>
   </si>
   <si>
-    <t>z</t>
-  </si>
-  <si>
     <t>\Im{</t>
   </si>
   <si>
@@ -384,9 +389,6 @@
     <t>\ev{</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>}{\psi}</t>
   </si>
   <si>
@@ -411,18 +413,6 @@
     <t>Dirac Bracket Notation</t>
   </si>
   <si>
-    <t>\braket{a}{b}</t>
-  </si>
-  <si>
-    <t>\braket*{a}{b}</t>
-  </si>
-  <si>
-    <t>\ketbra{a}{b}</t>
-  </si>
-  <si>
-    <t>\ketbra*{a}{b}</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -438,15 +428,9 @@
     <t># of arguments</t>
   </si>
   <si>
-    <t>\( #1 \)</t>
-  </si>
-  <si>
     <t>bqty</t>
   </si>
   <si>
-    <t>\[ #1 \]</t>
-  </si>
-  <si>
     <t>Bqty</t>
   </si>
   <si>
@@ -465,33 +449,15 @@
     <t>comm</t>
   </si>
   <si>
-    <t>\[ #1 , #2 \]</t>
-  </si>
-  <si>
     <t>acomm</t>
   </si>
   <si>
     <t>vb</t>
   </si>
   <si>
-    <t>\\{ #1 \\}</t>
-  </si>
-  <si>
-    <t>\\vert #1 \\vert</t>
-  </si>
-  <si>
-    <t>\\vert\\vert #1 \\vert\\vert</t>
-  </si>
-  <si>
     <t>#1 \\vert</t>
   </si>
   <si>
-    <t>\\{ #1 , #2 \\}</t>
-  </si>
-  <si>
-    <t>\\mathcal{O} \( #1 \)</t>
-  </si>
-  <si>
     <t>\\boldsymbol{ #1 }</t>
   </si>
   <si>
@@ -561,9 +527,6 @@
     <t>Res</t>
   </si>
   <si>
-    <t>\\text{Res}</t>
-  </si>
-  <si>
     <t>pv</t>
   </si>
   <si>
@@ -573,33 +536,12 @@
     <t>PV</t>
   </si>
   <si>
-    <t>\\text{P.V.}</t>
-  </si>
-  <si>
     <t>Re</t>
   </si>
   <si>
     <t>Im</t>
   </si>
   <si>
-    <t>\\text{Re} \\{ #1 \\}</t>
-  </si>
-  <si>
-    <t>\\text{Im} \\{ #1 \\}</t>
-  </si>
-  <si>
-    <t>\\text{tr }</t>
-  </si>
-  <si>
-    <t>\\text{Tr }</t>
-  </si>
-  <si>
-    <t>\\text{rank }</t>
-  </si>
-  <si>
-    <t>\\text{erf }</t>
-  </si>
-  <si>
     <t>qq</t>
   </si>
   <si>
@@ -762,18 +704,6 @@
     <t>ket</t>
   </si>
   <si>
-    <t>\\vert { #1 } \\rangle</t>
-  </si>
-  <si>
-    <t>\\langle { #1} \\vert</t>
-  </si>
-  <si>
-    <t>\\langle {#1} \\vert { #2} \\rangle</t>
-  </si>
-  <si>
-    <t>\\vert { #1 } \\rangle\\langle { #2} \\vert</t>
-  </si>
-  <si>
     <t>bra</t>
   </si>
   <si>
@@ -786,12 +716,6 @@
     <t>ev</t>
   </si>
   <si>
-    <t>\\langle {#1 } \\rangle</t>
-  </si>
-  <si>
-    <t>\\langle{ #1 }\\vert{ #2 }\\vert{#3}\\rangle</t>
-  </si>
-  <si>
     <t>mel</t>
   </si>
   <si>
@@ -960,27 +884,15 @@
     <t>innerproduct</t>
   </si>
   <si>
-    <t>\innerproduct{a}{b}</t>
-  </si>
-  <si>
     <t>outerproduct</t>
   </si>
   <si>
-    <t>\outerproduct{a}{b}</t>
-  </si>
-  <si>
     <t>dyad</t>
   </si>
   <si>
-    <t>\dyad{a}{b}</t>
-  </si>
-  <si>
     <t>op</t>
   </si>
   <si>
-    <t>\op{a}{b}</t>
-  </si>
-  <si>
     <t>expectationvalue</t>
   </si>
   <si>
@@ -1015,6 +927,111 @@
   </si>
   <si>
     <t>For Extension only</t>
+  </si>
+  <si>
+    <t>\\left\\{ #1 \\right\\}</t>
+  </si>
+  <si>
+    <t>\\left\( #1 \\right\)</t>
+  </si>
+  <si>
+    <t>\\left\[ #1 \\right\]</t>
+  </si>
+  <si>
+    <t>\\left\\vert #1 \\right\\vert</t>
+  </si>
+  <si>
+    <t>\\left\\Vert #1 \\right\\Vert</t>
+  </si>
+  <si>
+    <t>\\mathcal{O} \\left\( #1 \\right\)</t>
+  </si>
+  <si>
+    <t>\\left\[ #1 , #2 \\right\]</t>
+  </si>
+  <si>
+    <t>\\left\\{ #1 , #2 \\right\\}</t>
+  </si>
+  <si>
+    <t>\\operatorname{Res}</t>
+  </si>
+  <si>
+    <t>\\operatorname{P.V.}</t>
+  </si>
+  <si>
+    <t>\\operatorname{tr}</t>
+  </si>
+  <si>
+    <t>\\operatorname{Tr}</t>
+  </si>
+  <si>
+    <t>\\operatorname{rank}</t>
+  </si>
+  <si>
+    <t>\\operatorname{erf}</t>
+  </si>
+  <si>
+    <t>\\operatorname{Re} \\left\\{ #1 \\right\\}</t>
+  </si>
+  <si>
+    <t>\\operatorname{Im} \\left\\{ #1 \\right\\}</t>
+  </si>
+  <si>
+    <t>\\left\\vert { #1 } \\right\\rangle</t>
+  </si>
+  <si>
+    <t>\\left\\langle { #1} \\right\\vert</t>
+  </si>
+  <si>
+    <t>\\left\\langle {#1} \\mid { #2} \\right\\rangle</t>
+  </si>
+  <si>
+    <t>\\left\\vert { #1 } \\right\\rangle\\left\\langle { #2} \\right\\vert</t>
+  </si>
+  <si>
+    <t>\\left\\langle {#1 } \\right\\rangle</t>
+  </si>
+  <si>
+    <t>\\left\\langle{ #1 }\\right\\vert{ #2 }\\left\\vert{#3}\\right\\rangle</t>
+  </si>
+  <si>
+    <t>\frac{1}{1+\frac{1}{2}}</t>
+  </si>
+  <si>
+    <t>\frac{x}{2}</t>
+  </si>
+  <si>
+    <t>\frac{1}{1+\frac{i}{2}}</t>
+  </si>
+  <si>
+    <t>\frac{\psi + \phi}{2}</t>
+  </si>
+  <si>
+    <t>\innerproduct{\frac{\psi + \phi}{2}}{\frac{\psi + \phi}{2}}</t>
+  </si>
+  <si>
+    <t>\braket{\frac{\psi + \phi}{2}}{\frac{\psi + \phi}{2}}</t>
+  </si>
+  <si>
+    <t>\braket*{\frac{\psi + \phi}{2}}{\frac{\psi + \phi}{2}}</t>
+  </si>
+  <si>
+    <t>\outerproduct{\frac{\psi + \phi}{2}}{\frac{\psi + \phi}{2}}</t>
+  </si>
+  <si>
+    <t>\dyad{\frac{\psi + \phi}{2}}{\frac{\psi + \phi}{2}}</t>
+  </si>
+  <si>
+    <t>\ketbra{\frac{\psi + \phi}{2}}{\frac{\psi + \phi}{2}}</t>
+  </si>
+  <si>
+    <t>\op{\frac{\psi + \phi}{2}}{\frac{\psi + \phi}{2}}</t>
+  </si>
+  <si>
+    <t>\ketbra*{\frac{\psi + \phi}{2}}{\frac{\psi + \phi}{2}}</t>
+  </si>
+  <si>
+    <t>\frac{A+B}{2}</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1112,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="243">
+  <cellStyleXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1273,7 +1290,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1340,11 +1356,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="177"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1354,7 +1369,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="243">
+  <cellStyles count="242">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1443,6 +1458,7 @@
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
@@ -1507,7 +1523,6 @@
     <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1596,11 +1611,15 @@
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1930,7 +1949,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
@@ -1943,7 +1962,7 @@
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.1640625" bestFit="1" customWidth="1"/>
@@ -1956,12 +1975,12 @@
     <col min="22" max="22" width="1.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1969,21 +1988,21 @@
       <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="L1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1996,23 +2015,23 @@
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>331</v>
+        <v>128</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="Q2" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="T2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2020,10 +2039,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -2048,29 +2067,29 @@
       <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="N3" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O3" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P3" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q3" t="s">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="R3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -2079,10 +2098,10 @@
         <v>2</v>
       </c>
       <c r="V3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2090,10 +2109,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -2118,29 +2137,29 @@
       <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="N4" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O4" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P4" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q4" t="s">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="R4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -2149,10 +2168,10 @@
         <v>2</v>
       </c>
       <c r="V4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2163,7 +2182,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -2188,29 +2207,29 @@
       <c r="K5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="N5" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O5" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P5" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q5" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="R5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -2219,10 +2238,10 @@
         <v>2</v>
       </c>
       <c r="V5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2233,7 +2252,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
@@ -2258,29 +2277,29 @@
       <c r="K6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N6" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O6" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P6" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q6" t="s">
-        <v>141</v>
+        <v>302</v>
       </c>
       <c r="R6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -2289,10 +2308,10 @@
         <v>2</v>
       </c>
       <c r="V6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2300,10 +2319,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -2328,29 +2347,29 @@
       <c r="K7" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N7" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O7" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P7" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q7" t="s">
-        <v>152</v>
+        <v>303</v>
       </c>
       <c r="R7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -2359,10 +2378,10 @@
         <v>2</v>
       </c>
       <c r="V7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2373,7 +2392,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -2398,29 +2417,29 @@
       <c r="K8" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="N8" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O8" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P8" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q8" t="s">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="R8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -2429,10 +2448,10 @@
         <v>2</v>
       </c>
       <c r="V8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2440,10 +2459,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
@@ -2468,29 +2487,29 @@
       <c r="K9" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="N9" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O9" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P9" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q9" t="s">
-        <v>152</v>
+        <v>303</v>
       </c>
       <c r="R9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -2499,10 +2518,10 @@
         <v>2</v>
       </c>
       <c r="V9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2513,7 +2532,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
@@ -2538,29 +2557,29 @@
       <c r="K10" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O10" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P10" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q10" t="s">
-        <v>152</v>
+        <v>303</v>
       </c>
       <c r="R10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -2569,10 +2588,10 @@
         <v>2</v>
       </c>
       <c r="V10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2583,7 +2602,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -2608,29 +2627,29 @@
       <c r="K11" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O11" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P11" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q11" t="s">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="R11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -2639,10 +2658,10 @@
         <v>2</v>
       </c>
       <c r="V11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2650,10 +2669,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -2678,29 +2697,29 @@
       <c r="K12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="N12" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O12" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P12" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q12" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="R12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -2709,10 +2728,10 @@
         <v>2</v>
       </c>
       <c r="V12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2723,7 +2742,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -2748,29 +2767,29 @@
       <c r="K13" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="N13" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O13" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P13" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="R13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S13" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -2779,10 +2798,10 @@
         <v>2</v>
       </c>
       <c r="V13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2793,7 +2812,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>323</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -2818,29 +2837,29 @@
       <c r="K14" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="N14" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O14" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P14" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q14" t="s">
-        <v>156</v>
+        <v>305</v>
       </c>
       <c r="R14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -2849,10 +2868,10 @@
         <v>2</v>
       </c>
       <c r="V14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2860,7 +2879,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
@@ -2885,29 +2904,29 @@
       <c r="K15" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="N15" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O15" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P15" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q15" t="s">
-        <v>148</v>
+        <v>306</v>
       </c>
       <c r="R15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S15" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T15">
         <v>2</v>
@@ -2916,10 +2935,10 @@
         <v>2</v>
       </c>
       <c r="V15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2952,29 +2971,29 @@
       <c r="K16" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="N16" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O16" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P16" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q16" t="s">
-        <v>148</v>
+        <v>306</v>
       </c>
       <c r="R16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T16">
         <v>2</v>
@@ -2983,10 +3002,10 @@
         <v>2</v>
       </c>
       <c r="V16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2994,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
@@ -3019,29 +3038,29 @@
       <c r="K17" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="N17" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O17" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P17" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q17" t="s">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c r="R17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T17">
         <v>2</v>
@@ -3050,10 +3069,10 @@
         <v>2</v>
       </c>
       <c r="V17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3086,29 +3105,29 @@
       <c r="K18" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N18" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O18" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P18" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q18" t="s">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c r="R18" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T18">
         <v>2</v>
@@ -3117,10 +3136,10 @@
         <v>2</v>
       </c>
       <c r="V18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -3128,7 +3147,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
@@ -3153,29 +3172,29 @@
       <c r="K19" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="N19" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O19" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P19" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q19" t="s">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c r="R19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S19" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T19">
         <v>2</v>
@@ -3184,10 +3203,10 @@
         <v>2</v>
       </c>
       <c r="V19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -3195,7 +3214,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="E20" t="s">
         <v>20</v>
@@ -3220,29 +3239,29 @@
       <c r="K20" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="N20" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O20" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P20" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q20" t="s">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c r="R20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T20">
         <v>2</v>
@@ -3251,21 +3270,21 @@
         <v>2</v>
       </c>
       <c r="V20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="J21" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G22" t="s">
         <v>0</v>
@@ -3277,11 +3296,11 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="L22" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -3298,11 +3317,11 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L23" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="L23" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -3310,7 +3329,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -3338,29 +3357,29 @@
       <c r="K24" t="s">
         <v>11</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="N24" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O24" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P24" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q24" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="R24" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S24" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T24">
         <v>1</v>
@@ -3369,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="V24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -3408,29 +3427,29 @@
       <c r="K25" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="N25" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O25" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P25" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q25" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="R25" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S25" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -3439,10 +3458,10 @@
         <v>2</v>
       </c>
       <c r="V25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -3478,11 +3497,11 @@
       <c r="K26" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="L26" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -3518,11 +3537,11 @@
       <c r="K27" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="L27" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -3558,11 +3577,11 @@
       <c r="K28" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="L28" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -3570,7 +3589,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -3598,29 +3617,29 @@
       <c r="K29" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="N29" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O29" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P29" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q29" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="R29" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S29" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -3629,10 +3648,10 @@
         <v>2</v>
       </c>
       <c r="V29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -3668,29 +3687,29 @@
       <c r="K30" t="s">
         <v>11</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="N30" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O30" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P30" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q30" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="R30" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S30" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -3699,10 +3718,10 @@
         <v>2</v>
       </c>
       <c r="V30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -3738,11 +3757,11 @@
       <c r="K31" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="L31" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -3778,11 +3797,11 @@
       <c r="K32" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="L32" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -3818,11 +3837,11 @@
       <c r="K33" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="L33" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -3830,7 +3849,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
@@ -3858,29 +3877,29 @@
       <c r="K34" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="N34" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O34" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P34" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q34" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="R34" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S34" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -3889,10 +3908,10 @@
         <v>2</v>
       </c>
       <c r="V34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -3928,29 +3947,29 @@
       <c r="K35" t="s">
         <v>11</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="N35" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O35" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P35" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q35" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="R35" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S35" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -3959,10 +3978,10 @@
         <v>2</v>
       </c>
       <c r="V35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -3998,11 +4017,11 @@
       <c r="K36" t="s">
         <v>11</v>
       </c>
-      <c r="L36" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="L36" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -4038,11 +4057,11 @@
       <c r="K37" t="s">
         <v>11</v>
       </c>
-      <c r="L37" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="L37" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -4078,11 +4097,11 @@
       <c r="K38" t="s">
         <v>11</v>
       </c>
-      <c r="L38" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="L38" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -4090,7 +4109,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
@@ -4112,35 +4131,35 @@
       <c r="K39" t="s">
         <v>11</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="N39" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O39" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P39" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>161</v>
+        <v>296</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>147</v>
       </c>
       <c r="R39" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U39" t="s">
         <v>2</v>
       </c>
       <c r="V39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -4170,35 +4189,35 @@
       <c r="K40" t="s">
         <v>11</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="N40" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O40" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P40" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>161</v>
+        <v>296</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>147</v>
       </c>
       <c r="R40" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U40" t="s">
         <v>2</v>
       </c>
       <c r="V40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -4206,7 +4225,7 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="F41" t="s">
         <v>5</v>
@@ -4228,35 +4247,35 @@
       <c r="K41" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N41" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O41" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P41" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>165</v>
+        <v>296</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>151</v>
       </c>
       <c r="R41" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U41" t="s">
         <v>2</v>
       </c>
       <c r="V41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -4286,35 +4305,35 @@
       <c r="K42" t="s">
         <v>11</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="N42" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O42" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P42" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>165</v>
+        <v>296</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>151</v>
       </c>
       <c r="R42" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U42" t="s">
         <v>2</v>
       </c>
       <c r="V42" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -4322,7 +4341,7 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="F43" t="s">
         <v>5</v>
@@ -4344,35 +4363,35 @@
       <c r="K43" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="N43" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O43" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P43" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>165</v>
+        <v>296</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>151</v>
       </c>
       <c r="R43" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U43" t="s">
         <v>2</v>
       </c>
       <c r="V43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -4380,7 +4399,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
@@ -4408,35 +4427,35 @@
       <c r="K44" t="s">
         <v>11</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="N44" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O44" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P44" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>171</v>
+        <v>296</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>157</v>
       </c>
       <c r="R44" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U44" t="s">
         <v>2</v>
       </c>
       <c r="V44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -4472,35 +4491,35 @@
       <c r="K45" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="L45" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="N45" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O45" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P45" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>171</v>
+        <v>296</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>157</v>
       </c>
       <c r="R45" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U45" t="s">
         <v>2</v>
       </c>
       <c r="V45" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -4536,11 +4555,11 @@
       <c r="K46" t="s">
         <v>11</v>
       </c>
-      <c r="L46" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="L46" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -4576,11 +4595,11 @@
       <c r="K47" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="L47" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -4588,7 +4607,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
@@ -4616,35 +4635,35 @@
       <c r="K48" t="s">
         <v>11</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="L48" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="N48" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O48" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P48" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>168</v>
+        <v>296</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>154</v>
       </c>
       <c r="R48" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U48" t="s">
         <v>2</v>
       </c>
       <c r="V48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -4680,35 +4699,35 @@
       <c r="K49" t="s">
         <v>11</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="L49" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="N49" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O49" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P49" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>168</v>
+        <v>296</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>154</v>
       </c>
       <c r="R49" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U49" t="s">
         <v>2</v>
       </c>
       <c r="V49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -4744,11 +4763,11 @@
       <c r="K50" t="s">
         <v>11</v>
       </c>
-      <c r="L50" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="L50" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -4784,11 +4803,11 @@
       <c r="K51" t="s">
         <v>11</v>
       </c>
-      <c r="L51" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="L51" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -4824,35 +4843,35 @@
       <c r="K52" t="s">
         <v>11</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="L52" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="N52" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O52" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P52" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>170</v>
+        <v>296</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>156</v>
       </c>
       <c r="R52" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U52" t="s">
         <v>2</v>
       </c>
       <c r="V52" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -4888,11 +4907,11 @@
       <c r="K53" t="s">
         <v>11</v>
       </c>
-      <c r="L53" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="L53" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -4928,11 +4947,11 @@
       <c r="K54" t="s">
         <v>11</v>
       </c>
-      <c r="L54" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="L54" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -4968,35 +4987,35 @@
       <c r="K55" t="s">
         <v>11</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="L55" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="N55" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O55" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P55" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q55" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="R55" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U55" t="s">
         <v>2</v>
       </c>
       <c r="V55" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -5032,11 +5051,11 @@
       <c r="K56" t="s">
         <v>11</v>
       </c>
-      <c r="L56" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="L56" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -5072,22 +5091,22 @@
       <c r="K57" t="s">
         <v>11</v>
       </c>
-      <c r="L57" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="L57" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="J58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G59" t="s">
         <v>0</v>
@@ -5099,11 +5118,11 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L59" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
+      <c r="L59" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -5120,11 +5139,11 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L60" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="L60" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -5132,7 +5151,7 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -5157,11 +5176,11 @@
       <c r="K61" t="s">
         <v>11</v>
       </c>
-      <c r="L61" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="L61" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -5197,11 +5216,11 @@
       <c r="K62" t="s">
         <v>11</v>
       </c>
-      <c r="L62" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22">
+      <c r="L62" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -5209,7 +5228,7 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -5237,11 +5256,11 @@
       <c r="K63" t="s">
         <v>11</v>
       </c>
-      <c r="L63" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22">
+      <c r="L63" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -5274,35 +5293,35 @@
       <c r="K64" t="s">
         <v>11</v>
       </c>
-      <c r="L64" s="4" t="s">
+      <c r="L64" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M64" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="N64" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O64" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P64" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q64" t="s">
-        <v>189</v>
+        <v>310</v>
       </c>
       <c r="R64" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U64" t="s">
         <v>2</v>
       </c>
       <c r="V64" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -5335,35 +5354,35 @@
       <c r="K65" t="s">
         <v>11</v>
       </c>
-      <c r="L65" s="4" t="s">
+      <c r="L65" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="N65" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O65" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P65" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q65" t="s">
-        <v>190</v>
+        <v>311</v>
       </c>
       <c r="R65" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U65" t="s">
         <v>2</v>
       </c>
       <c r="V65" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -5371,7 +5390,7 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="D66" t="s">
         <v>47</v>
@@ -5396,35 +5415,35 @@
       <c r="K66" t="s">
         <v>11</v>
       </c>
-      <c r="L66" s="4" t="s">
+      <c r="L66" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M66" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="N66" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O66" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P66" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q66" t="s">
-        <v>191</v>
+        <v>312</v>
       </c>
       <c r="R66" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U66" t="s">
         <v>2</v>
       </c>
       <c r="V66" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -5460,35 +5479,35 @@
       <c r="K67" t="s">
         <v>11</v>
       </c>
-      <c r="L67" s="4" t="s">
+      <c r="L67" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="N67" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O67" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P67" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q67" t="s">
-        <v>192</v>
+        <v>313</v>
       </c>
       <c r="R67" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U67" t="s">
         <v>2</v>
       </c>
       <c r="V67" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -5524,35 +5543,35 @@
       <c r="K68" t="s">
         <v>11</v>
       </c>
-      <c r="L68" s="4" t="s">
+      <c r="L68" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M68" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="N68" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O68" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P68" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q68" t="s">
-        <v>180</v>
+        <v>308</v>
       </c>
       <c r="R68" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U68" t="s">
         <v>2</v>
       </c>
       <c r="V68" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -5560,7 +5579,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D69" t="s">
         <v>52</v>
@@ -5588,35 +5607,35 @@
       <c r="K69" t="s">
         <v>11</v>
       </c>
-      <c r="L69" s="4" t="s">
+      <c r="L69" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M69" t="s">
+        <v>268</v>
+      </c>
+      <c r="N69" t="s">
+        <v>297</v>
+      </c>
+      <c r="O69" t="s">
+        <v>298</v>
+      </c>
+      <c r="P69" t="s">
         <v>296</v>
       </c>
-      <c r="N69" t="s">
-        <v>329</v>
-      </c>
-      <c r="O69" t="s">
-        <v>330</v>
-      </c>
-      <c r="P69" t="s">
-        <v>328</v>
-      </c>
       <c r="Q69" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="R69" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U69" t="s">
         <v>2</v>
       </c>
       <c r="V69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -5652,35 +5671,35 @@
       <c r="K70" t="s">
         <v>11</v>
       </c>
-      <c r="L70" s="4" t="s">
+      <c r="L70" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M70" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="N70" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O70" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P70" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q70" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="R70" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U70" t="s">
         <v>2</v>
       </c>
       <c r="V70" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -5716,35 +5735,35 @@
       <c r="K71" t="s">
         <v>11</v>
       </c>
-      <c r="L71" s="4" t="s">
+      <c r="L71" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="N71" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O71" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P71" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q71" t="s">
-        <v>184</v>
+        <v>309</v>
       </c>
       <c r="R71" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U71" t="s">
         <v>2</v>
       </c>
       <c r="V71" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -5755,7 +5774,7 @@
         <v>54</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="E72" t="s">
         <v>3</v>
@@ -5780,29 +5799,29 @@
       <c r="K72" t="s">
         <v>11</v>
       </c>
-      <c r="L72" s="4" t="s">
+      <c r="L72" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="N72" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O72" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P72" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q72" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="R72" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S72" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T72">
         <v>1</v>
@@ -5811,10 +5830,10 @@
         <v>2</v>
       </c>
       <c r="V72" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -5822,10 +5841,10 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="E73" t="s">
         <v>3</v>
@@ -5850,29 +5869,29 @@
       <c r="K73" t="s">
         <v>11</v>
       </c>
-      <c r="L73" s="4" t="s">
+      <c r="L73" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="N73" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O73" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P73" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q73" t="s">
-        <v>188</v>
+        <v>315</v>
       </c>
       <c r="R73" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S73" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T73">
         <v>1</v>
@@ -5881,21 +5900,21 @@
         <v>2</v>
       </c>
       <c r="V73" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="J74" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G75" t="s">
         <v>0</v>
@@ -5907,11 +5926,11 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L75" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22">
+      <c r="L75" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -5928,11 +5947,11 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L76" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22">
+      <c r="L76" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -5940,10 +5959,10 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="D77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E77" t="s">
         <v>3</v>
@@ -5968,29 +5987,29 @@
       <c r="K77" t="s">
         <v>11</v>
       </c>
-      <c r="L77" s="4" t="s">
+      <c r="L77" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M77" t="s">
+        <v>270</v>
+      </c>
+      <c r="N77" t="s">
+        <v>297</v>
+      </c>
+      <c r="O77" t="s">
         <v>298</v>
       </c>
-      <c r="N77" t="s">
-        <v>329</v>
-      </c>
-      <c r="O77" t="s">
-        <v>330</v>
-      </c>
       <c r="P77" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q77" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="R77" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S77" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T77">
         <v>1</v>
@@ -5999,10 +6018,10 @@
         <v>2</v>
       </c>
       <c r="V77" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -6010,10 +6029,10 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" t="s">
         <v>57</v>
-      </c>
-      <c r="D78" t="s">
-        <v>58</v>
       </c>
       <c r="E78" t="s">
         <v>3</v>
@@ -6038,29 +6057,29 @@
       <c r="K78" t="s">
         <v>11</v>
       </c>
-      <c r="L78" s="4" t="s">
+      <c r="L78" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M78" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="N78" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O78" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P78" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q78" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="R78" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S78" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T78">
         <v>1</v>
@@ -6069,10 +6088,10 @@
         <v>2</v>
       </c>
       <c r="V78" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -6080,10 +6099,10 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E79" t="s">
         <v>3</v>
@@ -6108,11 +6127,11 @@
       <c r="K79" t="s">
         <v>11</v>
       </c>
-      <c r="L79" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22">
+      <c r="L79" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -6120,7 +6139,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="F80" t="s">
         <v>5</v>
@@ -6142,35 +6161,35 @@
       <c r="K80" t="s">
         <v>11</v>
       </c>
-      <c r="L80" s="4" t="s">
+      <c r="L80" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M80" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="N80" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O80" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P80" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q80" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="R80" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U80" t="s">
         <v>2</v>
       </c>
       <c r="V80" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -6178,7 +6197,7 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -6200,35 +6219,35 @@
       <c r="K81" t="s">
         <v>11</v>
       </c>
-      <c r="L81" s="4" t="s">
+      <c r="L81" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="N81" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O81" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P81" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q81" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="R81" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U81" t="s">
         <v>2</v>
       </c>
       <c r="V81" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -6236,7 +6255,7 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F82" t="s">
         <v>5</v>
@@ -6258,35 +6277,35 @@
       <c r="K82" t="s">
         <v>11</v>
       </c>
-      <c r="L82" s="4" t="s">
+      <c r="L82" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M82" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="N82" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O82" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P82" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q82" s="3" t="s">
-        <v>197</v>
+        <v>296</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>175</v>
       </c>
       <c r="R82" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U82" t="s">
         <v>2</v>
       </c>
       <c r="V82" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -6294,7 +6313,7 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F83" t="s">
         <v>5</v>
@@ -6316,35 +6335,35 @@
       <c r="K83" t="s">
         <v>11</v>
       </c>
-      <c r="L83" s="4" t="s">
+      <c r="L83" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="N83" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O83" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P83" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>199</v>
+        <v>296</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>177</v>
       </c>
       <c r="R83" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U83" t="s">
         <v>2</v>
       </c>
       <c r="V83" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -6352,7 +6371,7 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F84" t="s">
         <v>5</v>
@@ -6374,35 +6393,35 @@
       <c r="K84" t="s">
         <v>11</v>
       </c>
-      <c r="L84" s="4" t="s">
+      <c r="L84" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M84" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="N84" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O84" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P84" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q84" s="3" t="s">
-        <v>201</v>
+        <v>296</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>179</v>
       </c>
       <c r="R84" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U84" t="s">
         <v>2</v>
       </c>
       <c r="V84" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -6410,7 +6429,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F85" t="s">
         <v>5</v>
@@ -6432,35 +6451,35 @@
       <c r="K85" t="s">
         <v>11</v>
       </c>
-      <c r="L85" s="4" t="s">
+      <c r="L85" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M85" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="N85" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O85" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P85" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q85" s="3" t="s">
-        <v>219</v>
+        <v>296</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>197</v>
       </c>
       <c r="R85" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U85" t="s">
         <v>2</v>
       </c>
       <c r="V85" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -6468,7 +6487,7 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F86" t="s">
         <v>5</v>
@@ -6490,35 +6509,35 @@
       <c r="K86" t="s">
         <v>11</v>
       </c>
-      <c r="L86" s="4" t="s">
+      <c r="L86" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M86" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="N86" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O86" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P86" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q86" s="3" t="s">
-        <v>220</v>
+        <v>296</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>198</v>
       </c>
       <c r="R86" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U86" t="s">
         <v>2</v>
       </c>
       <c r="V86" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -6526,7 +6545,7 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F87" t="s">
         <v>5</v>
@@ -6548,35 +6567,35 @@
       <c r="K87" t="s">
         <v>11</v>
       </c>
-      <c r="L87" s="4" t="s">
+      <c r="L87" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="N87" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O87" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P87" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q87" s="3" t="s">
-        <v>221</v>
+        <v>296</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>199</v>
       </c>
       <c r="R87" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U87" t="s">
         <v>2</v>
       </c>
       <c r="V87" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -6584,7 +6603,7 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F88" t="s">
         <v>5</v>
@@ -6606,35 +6625,35 @@
       <c r="K88" t="s">
         <v>11</v>
       </c>
-      <c r="L88" s="4" t="s">
+      <c r="L88" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M88" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="N88" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O88" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P88" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q88" s="3" t="s">
-        <v>222</v>
+        <v>296</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>200</v>
       </c>
       <c r="R88" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U88" t="s">
         <v>2</v>
       </c>
       <c r="V88" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -6642,7 +6661,7 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F89" t="s">
         <v>5</v>
@@ -6664,35 +6683,35 @@
       <c r="K89" t="s">
         <v>11</v>
       </c>
-      <c r="L89" s="4" t="s">
+      <c r="L89" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="N89" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O89" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P89" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>223</v>
+        <v>296</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>201</v>
       </c>
       <c r="R89" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U89" t="s">
         <v>2</v>
       </c>
       <c r="V89" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -6700,7 +6719,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F90" t="s">
         <v>5</v>
@@ -6722,35 +6741,35 @@
       <c r="K90" t="s">
         <v>11</v>
       </c>
-      <c r="L90" s="4" t="s">
+      <c r="L90" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M90" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="N90" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O90" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P90" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q90" s="3" t="s">
-        <v>224</v>
+        <v>296</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>202</v>
       </c>
       <c r="R90" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U90" t="s">
         <v>2</v>
       </c>
       <c r="V90" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -6758,7 +6777,7 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F91" t="s">
         <v>5</v>
@@ -6780,35 +6799,35 @@
       <c r="K91" t="s">
         <v>11</v>
       </c>
-      <c r="L91" s="4" t="s">
+      <c r="L91" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="N91" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O91" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P91" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>225</v>
+        <v>296</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>203</v>
       </c>
       <c r="R91" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U91" t="s">
         <v>2</v>
       </c>
       <c r="V91" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -6816,7 +6835,7 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F92" t="s">
         <v>5</v>
@@ -6838,35 +6857,35 @@
       <c r="K92" t="s">
         <v>11</v>
       </c>
-      <c r="L92" s="4" t="s">
+      <c r="L92" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M92" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="N92" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O92" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P92" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q92" s="3" t="s">
-        <v>226</v>
+        <v>296</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>204</v>
       </c>
       <c r="R92" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U92" t="s">
         <v>2</v>
       </c>
       <c r="V92" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -6874,7 +6893,7 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -6896,35 +6915,35 @@
       <c r="K93" t="s">
         <v>11</v>
       </c>
-      <c r="L93" s="4" t="s">
+      <c r="L93" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M93" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="N93" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O93" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P93" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q93" s="3" t="s">
-        <v>227</v>
+        <v>296</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>205</v>
       </c>
       <c r="R93" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U93" t="s">
         <v>2</v>
       </c>
       <c r="V93" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -6932,7 +6951,7 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F94" t="s">
         <v>5</v>
@@ -6954,35 +6973,35 @@
       <c r="K94" t="s">
         <v>11</v>
       </c>
-      <c r="L94" s="4" t="s">
+      <c r="L94" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M94" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="N94" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O94" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P94" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>228</v>
+        <v>296</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>206</v>
       </c>
       <c r="R94" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U94" t="s">
         <v>2</v>
       </c>
       <c r="V94" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -6990,7 +7009,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F95" t="s">
         <v>5</v>
@@ -7012,35 +7031,35 @@
       <c r="K95" t="s">
         <v>11</v>
       </c>
-      <c r="L95" s="4" t="s">
+      <c r="L95" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="N95" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O95" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P95" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q95" s="3" t="s">
-        <v>229</v>
+        <v>296</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>207</v>
       </c>
       <c r="R95" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U95" t="s">
         <v>2</v>
       </c>
       <c r="V95" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -7048,7 +7067,7 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F96" t="s">
         <v>5</v>
@@ -7070,35 +7089,35 @@
       <c r="K96" t="s">
         <v>11</v>
       </c>
-      <c r="L96" s="4" t="s">
+      <c r="L96" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M96" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="N96" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O96" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P96" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q96" s="3" t="s">
-        <v>230</v>
+        <v>296</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>208</v>
       </c>
       <c r="R96" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U96" t="s">
         <v>2</v>
       </c>
       <c r="V96" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -7106,7 +7125,7 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F97" t="s">
         <v>5</v>
@@ -7128,35 +7147,35 @@
       <c r="K97" t="s">
         <v>11</v>
       </c>
-      <c r="L97" s="4" t="s">
+      <c r="L97" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="N97" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O97" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P97" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q97" s="3" t="s">
-        <v>231</v>
+        <v>296</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>209</v>
       </c>
       <c r="R97" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U97" t="s">
         <v>2</v>
       </c>
       <c r="V97" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -7164,7 +7183,7 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F98" t="s">
         <v>5</v>
@@ -7186,35 +7205,35 @@
       <c r="K98" t="s">
         <v>11</v>
       </c>
-      <c r="L98" s="4" t="s">
+      <c r="L98" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M98" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="N98" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O98" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P98" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q98" s="3" t="s">
-        <v>232</v>
+        <v>296</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>210</v>
       </c>
       <c r="R98" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U98" t="s">
         <v>2</v>
       </c>
       <c r="V98" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -7222,7 +7241,7 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F99" t="s">
         <v>5</v>
@@ -7244,35 +7263,35 @@
       <c r="K99" t="s">
         <v>11</v>
       </c>
-      <c r="L99" s="4" t="s">
+      <c r="L99" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M99" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="N99" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O99" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P99" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q99" s="3" t="s">
-        <v>233</v>
+        <v>296</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>211</v>
       </c>
       <c r="R99" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U99" t="s">
         <v>2</v>
       </c>
       <c r="V99" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -7280,7 +7299,7 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -7302,35 +7321,35 @@
       <c r="K100" t="s">
         <v>11</v>
       </c>
-      <c r="L100" s="4" t="s">
+      <c r="L100" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M100" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="N100" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O100" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P100" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>234</v>
+        <v>296</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>212</v>
       </c>
       <c r="R100" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U100" t="s">
         <v>2</v>
       </c>
       <c r="V100" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -7338,7 +7357,7 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F101" t="s">
         <v>5</v>
@@ -7360,46 +7379,46 @@
       <c r="K101" t="s">
         <v>11</v>
       </c>
-      <c r="L101" s="4" t="s">
+      <c r="L101" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M101" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="N101" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O101" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P101" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>235</v>
+        <v>296</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>213</v>
       </c>
       <c r="R101" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U101" t="s">
         <v>2</v>
       </c>
       <c r="V101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="J102" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G103" t="s">
         <v>0</v>
@@ -7411,11 +7430,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L103" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22">
+      <c r="L103" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -7432,11 +7451,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L104" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22">
+      <c r="L104" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -7444,7 +7463,7 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="D105" t="s">
         <v>18</v>
@@ -7472,35 +7491,35 @@
       <c r="K105" t="s">
         <v>11</v>
       </c>
-      <c r="L105" s="4" t="s">
+      <c r="L105" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="N105" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O105" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P105" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q105" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="R105" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U105" t="s">
         <v>2</v>
       </c>
       <c r="V105" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -7508,7 +7527,7 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
@@ -7536,35 +7555,35 @@
       <c r="K106" t="s">
         <v>11</v>
       </c>
-      <c r="L106" s="4" t="s">
+      <c r="L106" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M106" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="N106" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O106" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P106" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q106" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="R106" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U106" t="s">
         <v>2</v>
       </c>
       <c r="V106" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -7572,10 +7591,10 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
+        <v>81</v>
+      </c>
+      <c r="E107" t="s">
         <v>82</v>
-      </c>
-      <c r="E107" t="s">
-        <v>83</v>
       </c>
       <c r="F107" t="s">
         <v>5</v>
@@ -7597,11 +7616,11 @@
       <c r="K107" t="s">
         <v>11</v>
       </c>
-      <c r="L107" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22">
+      <c r="L107" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -7609,10 +7628,10 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
+        <v>83</v>
+      </c>
+      <c r="D108" t="s">
         <v>84</v>
-      </c>
-      <c r="D108" t="s">
-        <v>85</v>
       </c>
       <c r="E108" t="s">
         <v>1</v>
@@ -7637,11 +7656,11 @@
       <c r="K108" t="s">
         <v>11</v>
       </c>
-      <c r="L108" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22">
+      <c r="L108" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -7649,7 +7668,7 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D109" t="s">
         <v>18</v>
@@ -7677,11 +7696,11 @@
       <c r="K109" t="s">
         <v>11</v>
       </c>
-      <c r="L109" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22">
+      <c r="L109" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -7689,13 +7708,13 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="D110" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E110" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F110" t="s">
         <v>5</v>
@@ -7717,29 +7736,29 @@
       <c r="K110" t="s">
         <v>11</v>
       </c>
-      <c r="L110" s="4" t="s">
+      <c r="L110" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M110" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="N110" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O110" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P110" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q110" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="R110" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S110" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T110">
         <v>2</v>
@@ -7748,10 +7767,10 @@
         <v>2</v>
       </c>
       <c r="V110" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -7759,13 +7778,13 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D111" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E111" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -7787,29 +7806,29 @@
       <c r="K111" t="s">
         <v>11</v>
       </c>
-      <c r="L111" s="4" t="s">
+      <c r="L111" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="N111" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O111" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P111" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q111" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="R111" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S111" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T111">
         <v>2</v>
@@ -7818,10 +7837,10 @@
         <v>2</v>
       </c>
       <c r="V111" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -7829,13 +7848,13 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
+        <v>92</v>
+      </c>
+      <c r="D112" t="s">
+        <v>91</v>
+      </c>
+      <c r="E112" t="s">
         <v>93</v>
-      </c>
-      <c r="D112" t="s">
-        <v>92</v>
-      </c>
-      <c r="E112" t="s">
-        <v>94</v>
       </c>
       <c r="F112" t="s">
         <v>5</v>
@@ -7857,11 +7876,11 @@
       <c r="K112" t="s">
         <v>11</v>
       </c>
-      <c r="L112" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22">
+      <c r="L112" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -7869,10 +7888,10 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
+        <v>86</v>
+      </c>
+      <c r="D113" t="s">
         <v>87</v>
-      </c>
-      <c r="D113" t="s">
-        <v>88</v>
       </c>
       <c r="E113" t="s">
         <v>1</v>
@@ -7897,11 +7916,11 @@
       <c r="K113" t="s">
         <v>11</v>
       </c>
-      <c r="L113" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22">
+      <c r="L113" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -7909,13 +7928,13 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D114" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E114" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F114" t="s">
         <v>5</v>
@@ -7937,11 +7956,11 @@
       <c r="K114" t="s">
         <v>11</v>
       </c>
-      <c r="L114" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:22">
+      <c r="L114" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -7949,7 +7968,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D115" t="s">
         <v>18</v>
@@ -7977,11 +7996,11 @@
       <c r="K115" t="s">
         <v>11</v>
       </c>
-      <c r="L115" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22">
+      <c r="L115" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -7989,13 +8008,13 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D116" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -8017,29 +8036,29 @@
       <c r="K116" t="s">
         <v>11</v>
       </c>
-      <c r="L116" s="4" t="s">
+      <c r="L116" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M116" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="N116" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O116" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P116" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q116" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="R116" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S116" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T116">
         <v>2</v>
@@ -8048,10 +8067,10 @@
         <v>2</v>
       </c>
       <c r="V116" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="117" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -8059,13 +8078,13 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
+        <v>88</v>
+      </c>
+      <c r="D117" t="s">
+        <v>90</v>
+      </c>
+      <c r="E117" t="s">
         <v>89</v>
-      </c>
-      <c r="D117" t="s">
-        <v>91</v>
-      </c>
-      <c r="E117" t="s">
-        <v>90</v>
       </c>
       <c r="F117" t="s">
         <v>5</v>
@@ -8087,29 +8106,29 @@
       <c r="K117" t="s">
         <v>11</v>
       </c>
-      <c r="L117" s="4" t="s">
+      <c r="L117" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M117" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="N117" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O117" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P117" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q117" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="R117" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S117" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T117">
         <v>2</v>
@@ -8118,10 +8137,10 @@
         <v>2</v>
       </c>
       <c r="V117" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="118" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -8129,13 +8148,13 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D118" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E118" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F118" t="s">
         <v>5</v>
@@ -8157,11 +8176,11 @@
       <c r="K118" t="s">
         <v>11</v>
       </c>
-      <c r="L118" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22">
+      <c r="L118" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -8169,10 +8188,10 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D119" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E119" t="s">
         <v>1</v>
@@ -8197,11 +8216,11 @@
       <c r="K119" t="s">
         <v>11</v>
       </c>
-      <c r="L119" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:22">
+      <c r="L119" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -8209,13 +8228,13 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D120" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -8237,11 +8256,11 @@
       <c r="K120" t="s">
         <v>11</v>
       </c>
-      <c r="L120" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:22">
+      <c r="L120" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -8249,10 +8268,10 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="D121" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E121" t="s">
         <v>3</v>
@@ -8277,35 +8296,35 @@
       <c r="K121" t="s">
         <v>11</v>
       </c>
-      <c r="L121" s="4" t="s">
+      <c r="L121" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M121" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="N121" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O121" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P121" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q121" s="3" t="s">
-        <v>242</v>
+        <v>296</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>220</v>
       </c>
       <c r="R121" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U121" t="s">
         <v>2</v>
       </c>
       <c r="V121" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -8313,10 +8332,10 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
+        <v>103</v>
+      </c>
+      <c r="D122" t="s">
         <v>104</v>
-      </c>
-      <c r="D122" t="s">
-        <v>105</v>
       </c>
       <c r="E122" t="s">
         <v>3</v>
@@ -8341,35 +8360,35 @@
       <c r="K122" t="s">
         <v>11</v>
       </c>
-      <c r="L122" s="4" t="s">
+      <c r="L122" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M122" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="N122" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O122" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P122" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q122" s="3" t="s">
-        <v>242</v>
+        <v>296</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>220</v>
       </c>
       <c r="R122" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U122" t="s">
         <v>2</v>
       </c>
       <c r="V122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -8377,10 +8396,10 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
+        <v>105</v>
+      </c>
+      <c r="D123" t="s">
         <v>106</v>
-      </c>
-      <c r="D123" t="s">
-        <v>107</v>
       </c>
       <c r="E123" t="s">
         <v>1</v>
@@ -8405,11 +8424,11 @@
       <c r="K123" t="s">
         <v>11</v>
       </c>
-      <c r="L123" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22">
+      <c r="L123" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -8417,10 +8436,10 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
+        <v>107</v>
+      </c>
+      <c r="D124" t="s">
         <v>108</v>
-      </c>
-      <c r="D124" t="s">
-        <v>109</v>
       </c>
       <c r="E124" t="s">
         <v>3</v>
@@ -8445,11 +8464,11 @@
       <c r="K124" t="s">
         <v>11</v>
       </c>
-      <c r="L124" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22">
+      <c r="L124" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -8457,13 +8476,13 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="D125" t="s">
+        <v>109</v>
+      </c>
+      <c r="E125" t="s">
         <v>110</v>
-      </c>
-      <c r="E125" t="s">
-        <v>111</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -8485,29 +8504,29 @@
       <c r="K125" t="s">
         <v>11</v>
       </c>
-      <c r="L125" s="4" t="s">
+      <c r="L125" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M125" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="N125" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O125" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P125" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q125" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="R125" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S125" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T125">
         <v>2</v>
@@ -8516,10 +8535,10 @@
         <v>2</v>
       </c>
       <c r="V125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -8527,13 +8546,13 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D126" t="s">
+        <v>109</v>
+      </c>
+      <c r="E126" t="s">
         <v>110</v>
-      </c>
-      <c r="E126" t="s">
-        <v>111</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -8555,29 +8574,29 @@
       <c r="K126" t="s">
         <v>11</v>
       </c>
-      <c r="L126" s="4" t="s">
+      <c r="L126" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M126" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="N126" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O126" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P126" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q126" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="R126" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S126" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T126">
         <v>2</v>
@@ -8586,10 +8605,10 @@
         <v>2</v>
       </c>
       <c r="V126" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -8597,10 +8616,10 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D127" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E127" t="s">
         <v>1</v>
@@ -8625,11 +8644,11 @@
       <c r="K127" t="s">
         <v>11</v>
       </c>
-      <c r="L127" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:22">
+      <c r="L127" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -8637,13 +8656,13 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D128" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E128" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -8665,22 +8684,22 @@
       <c r="K128" t="s">
         <v>11</v>
       </c>
-      <c r="L128" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:22">
+      <c r="L128" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="J129" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:22">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>0</v>
       </c>
       <c r="D130" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G130" t="s">
         <v>0</v>
@@ -8692,11 +8711,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L130" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:22">
+      <c r="L130" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -8713,11 +8732,11 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L131" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22">
+      <c r="L131" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -8725,10 +8744,10 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D132" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="E132" t="s">
         <v>3</v>
@@ -8753,29 +8772,29 @@
       <c r="K132" t="s">
         <v>11</v>
       </c>
-      <c r="L132" s="4" t="s">
+      <c r="L132" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M132" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="N132" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O132" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P132" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q132" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="R132" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S132" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T132">
         <v>1</v>
@@ -8784,10 +8803,10 @@
         <v>2</v>
       </c>
       <c r="V132" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -8795,10 +8814,10 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D133" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="E133" t="s">
         <v>3</v>
@@ -8823,11 +8842,11 @@
       <c r="K133" t="s">
         <v>11</v>
       </c>
-      <c r="L133" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22">
+      <c r="L133" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -8835,10 +8854,10 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D134" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="E134" t="s">
         <v>3</v>
@@ -8863,29 +8882,29 @@
       <c r="K134" t="s">
         <v>11</v>
       </c>
-      <c r="L134" s="4" t="s">
+      <c r="L134" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M134" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="N134" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O134" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P134" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q134" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="R134" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S134" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T134">
         <v>1</v>
@@ -8894,10 +8913,10 @@
         <v>2</v>
       </c>
       <c r="V134" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -8905,10 +8924,10 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D135" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="E135" t="s">
         <v>3</v>
@@ -8933,11 +8952,11 @@
       <c r="K135" t="s">
         <v>11</v>
       </c>
-      <c r="L135" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22">
+      <c r="L135" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -8945,7 +8964,7 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="F136" t="s">
         <v>5</v>
@@ -8958,7 +8977,7 @@
       </c>
       <c r="I136" t="str">
         <f t="shared" ref="I136" si="58">C136</f>
-        <v>\innerproduct{a}{b}</v>
+        <v>\innerproduct{\frac{\psi + \phi}{2}}{\frac{\psi + \phi}{2}}</v>
       </c>
       <c r="J136" t="str">
         <f t="shared" ref="J136" si="59">IF(E136="","",E136)</f>
@@ -8967,29 +8986,29 @@
       <c r="K136" t="s">
         <v>11</v>
       </c>
-      <c r="L136" s="4" t="s">
+      <c r="L136" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M136" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="N136" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O136" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P136" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q136" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
       <c r="R136" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S136" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T136">
         <v>2</v>
@@ -8998,10 +9017,10 @@
         <v>2</v>
       </c>
       <c r="V136" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -9009,7 +9028,7 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="F137" t="s">
         <v>5</v>
@@ -9022,7 +9041,7 @@
       </c>
       <c r="I137" t="str">
         <f t="shared" si="57"/>
-        <v>\braket{a}{b}</v>
+        <v>\braket{\frac{\psi + \phi}{2}}{\frac{\psi + \phi}{2}}</v>
       </c>
       <c r="J137" t="str">
         <f t="shared" si="44"/>
@@ -9031,49 +9050,49 @@
       <c r="K137" t="s">
         <v>11</v>
       </c>
-      <c r="L137" s="4" t="s">
+      <c r="L137" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M137" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="N137" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O137" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P137" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>318</v>
+      </c>
+      <c r="R137" t="s">
+        <v>130</v>
+      </c>
+      <c r="S137" t="s">
+        <v>131</v>
+      </c>
+      <c r="T137">
+        <v>2</v>
+      </c>
+      <c r="U137" t="s">
+        <v>2</v>
+      </c>
+      <c r="V137" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
         <v>328</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>249</v>
-      </c>
-      <c r="R137" t="s">
-        <v>136</v>
-      </c>
-      <c r="S137" t="s">
-        <v>137</v>
-      </c>
-      <c r="T137">
-        <v>2</v>
-      </c>
-      <c r="U137" t="s">
-        <v>2</v>
-      </c>
-      <c r="V137" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="138" spans="1:22">
-      <c r="A138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B138" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" t="s">
-        <v>131</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -9086,7 +9105,7 @@
       </c>
       <c r="I138" t="str">
         <f t="shared" si="57"/>
-        <v>\braket*{a}{b}</v>
+        <v>\braket*{\frac{\psi + \phi}{2}}{\frac{\psi + \phi}{2}}</v>
       </c>
       <c r="J138" t="str">
         <f t="shared" si="44"/>
@@ -9095,11 +9114,11 @@
       <c r="K138" t="s">
         <v>11</v>
       </c>
-      <c r="L138" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22">
+      <c r="L138" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -9107,10 +9126,10 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D139" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="E139" t="s">
         <v>3</v>
@@ -9135,11 +9154,11 @@
       <c r="K139" t="s">
         <v>11</v>
       </c>
-      <c r="L139" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:22">
+      <c r="L139" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -9147,7 +9166,7 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="F140" t="s">
         <v>5</v>
@@ -9160,7 +9179,7 @@
       </c>
       <c r="I140" t="str">
         <f t="shared" si="57"/>
-        <v>\outerproduct{a}{b}</v>
+        <v>\outerproduct{\frac{\psi + \phi}{2}}{\frac{\psi + \phi}{2}}</v>
       </c>
       <c r="J140" t="str">
         <f t="shared" si="44"/>
@@ -9169,49 +9188,49 @@
       <c r="K140" t="s">
         <v>11</v>
       </c>
-      <c r="L140" s="4" t="s">
+      <c r="L140" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M140" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="N140" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O140" t="s">
+        <v>298</v>
+      </c>
+      <c r="P140" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>319</v>
+      </c>
+      <c r="R140" t="s">
+        <v>130</v>
+      </c>
+      <c r="S140" t="s">
+        <v>131</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140" t="s">
+        <v>2</v>
+      </c>
+      <c r="V140" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
         <v>330</v>
-      </c>
-      <c r="P140" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q140" t="s">
-        <v>250</v>
-      </c>
-      <c r="R140" t="s">
-        <v>136</v>
-      </c>
-      <c r="S140" t="s">
-        <v>137</v>
-      </c>
-      <c r="T140">
-        <v>2</v>
-      </c>
-      <c r="U140" t="s">
-        <v>2</v>
-      </c>
-      <c r="V140" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="141" spans="1:22">
-      <c r="A141" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" t="s">
-        <v>317</v>
       </c>
       <c r="F141" t="s">
         <v>5</v>
@@ -9224,7 +9243,7 @@
       </c>
       <c r="I141" t="str">
         <f t="shared" ref="I141:I142" si="60">C141</f>
-        <v>\dyad{a}{b}</v>
+        <v>\dyad{\frac{\psi + \phi}{2}}{\frac{\psi + \phi}{2}}</v>
       </c>
       <c r="J141" t="str">
         <f t="shared" ref="J141:J142" si="61">IF(E141="","",E141)</f>
@@ -9233,29 +9252,29 @@
       <c r="K141" t="s">
         <v>11</v>
       </c>
-      <c r="L141" s="4" t="s">
+      <c r="L141" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M141" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="N141" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O141" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P141" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q141" t="s">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="R141" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S141" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T141">
         <v>2</v>
@@ -9264,10 +9283,10 @@
         <v>2</v>
       </c>
       <c r="V141" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -9275,7 +9294,7 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>132</v>
+        <v>331</v>
       </c>
       <c r="F142" t="s">
         <v>5</v>
@@ -9288,7 +9307,7 @@
       </c>
       <c r="I142" t="str">
         <f t="shared" si="60"/>
-        <v>\ketbra{a}{b}</v>
+        <v>\ketbra{\frac{\psi + \phi}{2}}{\frac{\psi + \phi}{2}}</v>
       </c>
       <c r="J142" t="str">
         <f t="shared" si="61"/>
@@ -9297,29 +9316,29 @@
       <c r="K142" t="s">
         <v>11</v>
       </c>
-      <c r="L142" s="4" t="s">
+      <c r="L142" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M142" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="N142" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O142" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P142" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q142" t="s">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="R142" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S142" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T142">
         <v>2</v>
@@ -9328,10 +9347,10 @@
         <v>2</v>
       </c>
       <c r="V142" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="143" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -9339,7 +9358,7 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="F143" t="s">
         <v>5</v>
@@ -9352,7 +9371,7 @@
       </c>
       <c r="I143" t="str">
         <f t="shared" si="57"/>
-        <v>\op{a}{b}</v>
+        <v>\op{\frac{\psi + \phi}{2}}{\frac{\psi + \phi}{2}}</v>
       </c>
       <c r="J143" t="str">
         <f t="shared" si="44"/>
@@ -9361,29 +9380,29 @@
       <c r="K143" t="s">
         <v>11</v>
       </c>
-      <c r="L143" s="4" t="s">
+      <c r="L143" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M143" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="N143" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O143" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P143" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q143" t="s">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="R143" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S143" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T143">
         <v>2</v>
@@ -9392,10 +9411,10 @@
         <v>2</v>
       </c>
       <c r="V143" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="144" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -9403,7 +9422,7 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>133</v>
+        <v>333</v>
       </c>
       <c r="F144" t="s">
         <v>5</v>
@@ -9416,7 +9435,7 @@
       </c>
       <c r="I144" t="str">
         <f t="shared" si="57"/>
-        <v>\ketbra*{a}{b}</v>
+        <v>\ketbra*{\frac{\psi + \phi}{2}}{\frac{\psi + \phi}{2}}</v>
       </c>
       <c r="J144" t="str">
         <f t="shared" si="44"/>
@@ -9425,11 +9444,11 @@
       <c r="K144" t="s">
         <v>11</v>
       </c>
-      <c r="L144" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:22">
+      <c r="L144" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -9437,10 +9456,10 @@
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D145" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="E145" t="s">
         <v>3</v>
@@ -9465,11 +9484,11 @@
       <c r="K145" t="s">
         <v>11</v>
       </c>
-      <c r="L145" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:22">
+      <c r="L145" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -9477,10 +9496,10 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="E146" t="s">
         <v>3</v>
@@ -9505,29 +9524,29 @@
       <c r="K146" t="s">
         <v>11</v>
       </c>
-      <c r="L146" s="4" t="s">
+      <c r="L146" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M146" t="s">
+        <v>288</v>
+      </c>
+      <c r="N146" t="s">
+        <v>297</v>
+      </c>
+      <c r="O146" t="s">
+        <v>298</v>
+      </c>
+      <c r="P146" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q146" t="s">
         <v>320</v>
       </c>
-      <c r="N146" t="s">
-        <v>329</v>
-      </c>
-      <c r="O146" t="s">
-        <v>330</v>
-      </c>
-      <c r="P146" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>255</v>
-      </c>
       <c r="R146" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S146" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T146">
         <v>1</v>
@@ -9536,10 +9555,10 @@
         <v>2</v>
       </c>
       <c r="V146" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="147" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -9547,10 +9566,10 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="D147" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="E147" t="s">
         <v>3</v>
@@ -9575,29 +9594,29 @@
       <c r="K147" t="s">
         <v>11</v>
       </c>
-      <c r="L147" s="4" t="s">
+      <c r="L147" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M147" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="N147" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O147" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P147" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q147" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="R147" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S147" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T147">
         <v>1</v>
@@ -9606,10 +9625,10 @@
         <v>2</v>
       </c>
       <c r="V147" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="148" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -9617,10 +9636,10 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D148" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="E148" t="s">
         <v>3</v>
@@ -9645,29 +9664,29 @@
       <c r="K148" t="s">
         <v>11</v>
       </c>
-      <c r="L148" s="4" t="s">
+      <c r="L148" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M148" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="N148" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O148" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P148" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q148" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="R148" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S148" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T148">
         <v>1</v>
@@ -9676,10 +9695,10 @@
         <v>2</v>
       </c>
       <c r="V148" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="149" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -9687,13 +9706,13 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
+        <v>119</v>
+      </c>
+      <c r="D149" t="s">
+        <v>334</v>
+      </c>
+      <c r="E149" t="s">
         <v>120</v>
-      </c>
-      <c r="D149" t="s">
-        <v>121</v>
-      </c>
-      <c r="E149" t="s">
-        <v>122</v>
       </c>
       <c r="F149" t="s">
         <v>5</v>
@@ -9715,11 +9734,11 @@
       <c r="K149" t="s">
         <v>11</v>
       </c>
-      <c r="L149" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:22">
+      <c r="L149" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -9727,10 +9746,10 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D150" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="E150" t="s">
         <v>3</v>
@@ -9755,11 +9774,11 @@
       <c r="K150" t="s">
         <v>11</v>
       </c>
-      <c r="L150" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:22">
+      <c r="L150" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -9767,10 +9786,10 @@
         <v>4</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>3</v>
@@ -9795,11 +9814,11 @@
       <c r="K151" t="s">
         <v>11</v>
       </c>
-      <c r="L151" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:22">
+      <c r="L151" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -9807,13 +9826,13 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="D152" t="s">
-        <v>121</v>
+        <v>334</v>
       </c>
       <c r="E152" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F152" t="s">
         <v>5</v>
@@ -9835,29 +9854,29 @@
       <c r="K152" t="s">
         <v>11</v>
       </c>
-      <c r="L152" s="4" t="s">
+      <c r="L152" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M152" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="N152" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O152" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P152" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q152" t="s">
-        <v>256</v>
+        <v>321</v>
       </c>
       <c r="R152" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S152" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T152">
         <v>3</v>
@@ -9866,10 +9885,10 @@
         <v>2</v>
       </c>
       <c r="V152" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="153" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -9877,13 +9896,13 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="D153" t="s">
-        <v>121</v>
+        <v>334</v>
       </c>
       <c r="E153" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F153" t="s">
         <v>5</v>
@@ -9905,29 +9924,29 @@
       <c r="K153" t="s">
         <v>11</v>
       </c>
-      <c r="L153" s="4" t="s">
+      <c r="L153" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M153" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="N153" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O153" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P153" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q153" t="s">
-        <v>256</v>
+        <v>321</v>
       </c>
       <c r="R153" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S153" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T153">
         <v>3</v>
@@ -9936,10 +9955,10 @@
         <v>2</v>
       </c>
       <c r="V153" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="154" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -9947,13 +9966,13 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D154" t="s">
-        <v>121</v>
+        <v>334</v>
       </c>
       <c r="E154" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F154" t="s">
         <v>5</v>
@@ -9975,29 +9994,29 @@
       <c r="K154" t="s">
         <v>11</v>
       </c>
-      <c r="L154" s="4" t="s">
+      <c r="L154" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M154" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="N154" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O154" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="P154" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="Q154" t="s">
-        <v>256</v>
+        <v>321</v>
       </c>
       <c r="R154" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S154" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T154">
         <v>3</v>
@@ -10006,10 +10025,10 @@
         <v>2</v>
       </c>
       <c r="V154" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="155" spans="1:22">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -10017,13 +10036,13 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D155" t="s">
-        <v>121</v>
+        <v>334</v>
       </c>
       <c r="E155" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F155" t="s">
         <v>5</v>
@@ -10045,11 +10064,11 @@
       <c r="K155" t="s">
         <v>11</v>
       </c>
-      <c r="L155" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:22">
+      <c r="L155" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -10057,13 +10076,13 @@
         <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D156" t="s">
-        <v>121</v>
+        <v>334</v>
       </c>
       <c r="E156" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F156" t="s">
         <v>5</v>
@@ -10085,52 +10104,12 @@
       <c r="K156" t="s">
         <v>11</v>
       </c>
-      <c r="L156" s="4" t="s">
+      <c r="L156" s="3" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Q40" r:id="rId1"/>
-    <hyperlink ref="Q42" r:id="rId2"/>
-    <hyperlink ref="Q49" r:id="rId3"/>
-    <hyperlink ref="Q52" r:id="rId4"/>
-    <hyperlink ref="Q45" r:id="rId5"/>
-    <hyperlink ref="Q82" r:id="rId6"/>
-    <hyperlink ref="Q83" r:id="rId7"/>
-    <hyperlink ref="Q84" r:id="rId8"/>
-    <hyperlink ref="Q85:Q101" r:id="rId9" display="\\quad\\text{then}\\quad"/>
-    <hyperlink ref="Q85" r:id="rId10"/>
-    <hyperlink ref="Q86" r:id="rId11"/>
-    <hyperlink ref="Q87" r:id="rId12"/>
-    <hyperlink ref="Q88" r:id="rId13"/>
-    <hyperlink ref="Q89" r:id="rId14"/>
-    <hyperlink ref="Q90" r:id="rId15"/>
-    <hyperlink ref="Q91" r:id="rId16"/>
-    <hyperlink ref="Q92" r:id="rId17"/>
-    <hyperlink ref="Q93" r:id="rId18"/>
-    <hyperlink ref="Q94" r:id="rId19"/>
-    <hyperlink ref="Q95" r:id="rId20"/>
-    <hyperlink ref="Q96" r:id="rId21"/>
-    <hyperlink ref="Q97" r:id="rId22"/>
-    <hyperlink ref="Q98" r:id="rId23"/>
-    <hyperlink ref="Q99" r:id="rId24"/>
-    <hyperlink ref="Q100" r:id="rId25"/>
-    <hyperlink ref="Q101" r:id="rId26"/>
-    <hyperlink ref="Q122" r:id="rId27"/>
-    <hyperlink ref="Q39" r:id="rId28"/>
-    <hyperlink ref="Q41" r:id="rId29"/>
-    <hyperlink ref="Q44" r:id="rId30"/>
-    <hyperlink ref="Q43" r:id="rId31"/>
-    <hyperlink ref="Q48" r:id="rId32"/>
-    <hyperlink ref="Q121" r:id="rId33"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>